--- a/F1_densidad_follaje.xlsx
+++ b/F1_densidad_follaje.xlsx
@@ -8,14 +8,15 @@
   <sheets>
     <sheet name="follajeComuna" r:id="rId3" sheetId="1"/>
     <sheet name="follajeBarrios" r:id="rId4" sheetId="2"/>
-    <sheet name="follajeCorredores" r:id="rId5" sheetId="3"/>
-    <sheet name="follajeInstituciones" r:id="rId6" sheetId="4"/>
+    <sheet name="topBarrios" r:id="rId5" sheetId="3"/>
+    <sheet name="follajeCorredores" r:id="rId6" sheetId="4"/>
+    <sheet name="follajeInstituciones" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <t>densidad</t>
   </si>
@@ -42,6 +43,84 @@
   </si>
   <si>
     <t>Ralo</t>
+  </si>
+  <si>
+    <t>barriosDenso</t>
+  </si>
+  <si>
+    <t>arbolesDenso</t>
+  </si>
+  <si>
+    <t>barriosMedio</t>
+  </si>
+  <si>
+    <t>arbolesMedio</t>
+  </si>
+  <si>
+    <t>barriosRalo</t>
+  </si>
+  <si>
+    <t>arbolesRalo</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Santa Helena</t>
+  </si>
+  <si>
+    <t>Hipodromo</t>
+  </si>
+  <si>
+    <t>La Macarena</t>
+  </si>
+  <si>
+    <t>La Francia</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Claret</t>
+  </si>
+  <si>
+    <t>Santander</t>
+  </si>
+  <si>
+    <t>América</t>
+  </si>
+  <si>
+    <t>Casa Club</t>
+  </si>
+  <si>
+    <t>Metaima 2</t>
+  </si>
+  <si>
+    <t>Boyaca</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Castellana</t>
   </si>
 </sst>
 </file>
@@ -229,13 +308,22 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -243,13 +331,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>449.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6593</v>
+        <v>830.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>669.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="n">
+        <v>197.0</v>
       </c>
     </row>
     <row r="3">
@@ -257,13 +354,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2952</v>
+        <v>759.0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="n">
+        <v>272.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="4">
@@ -271,13 +377,183 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0455</v>
+        <v>652.0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>562.0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>231.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="n">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>484.0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="n">
+        <v>322.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -313,6 +589,73 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
+        <v>449.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6593</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2952</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
         <v>1867.0</v>
       </c>
       <c r="D2" t="n">

--- a/F1_densidad_follaje.xlsx
+++ b/F1_densidad_follaje.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="82">
   <si>
     <t>densidad</t>
   </si>
@@ -84,6 +84,24 @@
     <t>10</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Santa Helena</t>
   </si>
   <si>
@@ -114,13 +132,136 @@
     <t>Metaima 2</t>
   </si>
   <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Nacional</t>
+  </si>
+  <si>
+    <t>Magisterio</t>
+  </si>
+  <si>
+    <t>Montealegre</t>
+  </si>
+  <si>
+    <t>Laureles</t>
+  </si>
+  <si>
+    <t>Naciones Unidas</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>652</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>484</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>Boyaca</t>
   </si>
   <si>
+    <t>Bosques de Santa Helena</t>
+  </si>
+  <si>
+    <t>Departamental</t>
+  </si>
+  <si>
+    <t>669</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>Las Palmas</t>
   </si>
   <si>
     <t>Castellana</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -331,22 +472,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>830.0</v>
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>669.0</v>
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="n">
-        <v>197.0</v>
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -354,22 +495,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="n">
-        <v>759.0</v>
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="n">
-        <v>272.0</v>
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="n">
-        <v>77.0</v>
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -377,22 +518,22 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="n">
-        <v>652.0</v>
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="n">
-        <v>267.0</v>
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="n">
-        <v>50.0</v>
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -400,22 +541,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>562.0</v>
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>250.0</v>
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>45.0</v>
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -423,22 +564,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="n">
-        <v>494.0</v>
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="n">
-        <v>231.0</v>
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="n">
-        <v>37.0</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -446,22 +587,22 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="n">
-        <v>484.0</v>
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>196.0</v>
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="n">
-        <v>34.0</v>
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -469,22 +610,22 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="n">
-        <v>322.0</v>
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="n">
-        <v>192.0</v>
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="n">
-        <v>29.0</v>
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -492,22 +633,22 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="n">
-        <v>237.0</v>
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="n">
-        <v>188.0</v>
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="n">
-        <v>27.0</v>
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -515,22 +656,22 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="n">
-        <v>182.0</v>
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="n">
-        <v>98.0</v>
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="n">
-        <v>21.0</v>
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -538,22 +679,160 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="n">
-        <v>176.0</v>
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="n">
-        <v>92.0</v>
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.0</v>
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
